--- a/Data/g11.8b.xlsx
+++ b/Data/g11.8b.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wagner Nobrega\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8F03761-BD70-4A3C-A456-64A10BFC091F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78994D2F-3835-4D09-81D1-097795E52661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{8D0A0963-983E-405C-9A03-9EF31D4F214F}"/>
   </bookViews>
@@ -67,13 +67,28 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -84,7 +99,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -92,15 +107,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal_g11.3_1" xfId="1" xr:uid="{664BC2DF-5C0E-4829-BDC7-C0482E38BA5A}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -415,7 +447,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C10"/>
+      <selection activeCell="A2" sqref="A2:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -435,38 +467,38 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2">
-        <v>-103.11773932349294</v>
+      <c r="B2" s="2">
+        <v>-1.1863039602580059</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3">
-        <v>-58.333479861414915</v>
+      <c r="B3" s="2">
+        <v>-0.87730684124276759</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4">
-        <v>-94.956609363726955</v>
+      <c r="B4" s="2">
+        <v>-0.98865385341600798</v>
       </c>
       <c r="C4">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
-      <c r="B5">
-        <v>-27.508513225814447</v>
+      <c r="B5" s="2">
+        <v>-0.27508513225814446</v>
       </c>
       <c r="C5">
         <v>6</v>
@@ -476,8 +508,8 @@
       <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="B6">
-        <v>-20.406800285522884</v>
+      <c r="B6" s="2">
+        <v>-0.151788671431939</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -487,8 +519,8 @@
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7">
-        <v>-13.225859454267223</v>
+      <c r="B7" s="2">
+        <v>-0.13648917617817061</v>
       </c>
       <c r="C7">
         <v>4</v>
@@ -498,8 +530,8 @@
       <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B8">
-        <v>-3.1702573548356319</v>
+      <c r="B8" s="2">
+        <v>9.9620728755395495E-3</v>
       </c>
       <c r="C8">
         <v>3</v>
@@ -509,8 +541,8 @@
       <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B9">
-        <v>73.73400563892352</v>
+      <c r="B9" s="2">
+        <v>0.61804224730370816</v>
       </c>
       <c r="C9">
         <v>2</v>
@@ -520,8 +552,8 @@
       <c r="A10" t="s">
         <v>6</v>
       </c>
-      <c r="B10">
-        <v>77.397802706488847</v>
+      <c r="B10" s="2">
+        <v>0.76268770220451798</v>
       </c>
       <c r="C10">
         <v>1</v>

--- a/Data/g11.8b.xlsx
+++ b/Data/g11.8b.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wagner Nobrega\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78994D2F-3835-4D09-81D1-097795E52661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAC5318F-071B-4392-A7E7-6DEDB66F729F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{8D0A0963-983E-405C-9A03-9EF31D4F214F}"/>
   </bookViews>
@@ -30,9 +30,6 @@
     <t>Região</t>
   </si>
   <si>
-    <t>2015 a 2022</t>
-  </si>
-  <si>
     <t>Posição</t>
   </si>
   <si>
@@ -61,6 +58,9 @@
   </si>
   <si>
     <t>AC</t>
+  </si>
+  <si>
+    <t>Valor</t>
   </si>
 </sst>
 </file>
@@ -447,12 +447,14 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C10"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -460,15 +462,15 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="2">
         <v>-1.1863039602580059</v>
@@ -476,7 +478,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="2">
         <v>-0.87730684124276759</v>
@@ -484,7 +486,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="2">
         <v>-0.98865385341600798</v>
@@ -495,7 +497,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="2">
         <v>-0.27508513225814446</v>
@@ -506,7 +508,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" s="2">
         <v>-0.151788671431939</v>
@@ -517,7 +519,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" s="2">
         <v>-0.13648917617817061</v>
@@ -528,7 +530,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="2">
         <v>9.9620728755395495E-3</v>
@@ -539,7 +541,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="2">
         <v>0.61804224730370816</v>
@@ -550,7 +552,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B10" s="2">
         <v>0.76268770220451798</v>

--- a/Data/g11.8b.xlsx
+++ b/Data/g11.8b.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wagner Nobrega\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAC5318F-071B-4392-A7E7-6DEDB66F729F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{408E5AE5-CA8E-4DAE-A4CA-E689C05E0161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{8D0A0963-983E-405C-9A03-9EF31D4F214F}"/>
   </bookViews>
@@ -67,10 +67,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0%"/>
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,6 +90,13 @@
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -119,20 +127,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal_g11.3_1" xfId="1" xr:uid="{664BC2DF-5C0E-4829-BDC7-C0482E38BA5A}"/>
+    <cellStyle name="Vírgula" xfId="2" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -446,14 +456,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E9C8C42-9DCD-413B-90E4-BB97BEE6F300}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -473,7 +481,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2">
-        <v>-1.1863039602580059</v>
+        <v>-118.63039602580059</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -481,7 +489,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="2">
-        <v>-0.87730684124276759</v>
+        <v>-87.730684124276763</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -489,7 +497,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="2">
-        <v>-0.98865385341600798</v>
+        <v>-98.865385341600799</v>
       </c>
       <c r="C4">
         <v>15</v>
@@ -500,7 +508,7 @@
         <v>10</v>
       </c>
       <c r="B5" s="2">
-        <v>-0.27508513225814446</v>
+        <v>-27.508513225814447</v>
       </c>
       <c r="C5">
         <v>6</v>
@@ -511,7 +519,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="2">
-        <v>-0.151788671431939</v>
+        <v>-15.1788671431939</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -522,7 +530,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="2">
-        <v>-0.13648917617817061</v>
+        <v>-13.648917617817061</v>
       </c>
       <c r="C7">
         <v>4</v>
@@ -533,7 +541,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2">
-        <v>9.9620728755395495E-3</v>
+        <v>0.99620728755395493</v>
       </c>
       <c r="C8">
         <v>3</v>
@@ -544,7 +552,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="2">
-        <v>0.61804224730370816</v>
+        <v>61.804224730370819</v>
       </c>
       <c r="C9">
         <v>2</v>
@@ -555,7 +563,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="2">
-        <v>0.76268770220451798</v>
+        <v>76.268770220451799</v>
       </c>
       <c r="C10">
         <v>1</v>
